--- a/downloaded_files/EECS304_Tutorial-35312.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -214,15 +214,6 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED KHAIRY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد هشام ابراهيم حسنين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed hesham ibrahim hassanain</x:t>
   </x:si>
   <x:si>
     <x:t>1230324</x:t>
@@ -401,7 +392,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -701,7 +692,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1460,7 +1451,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.7982044792</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.4887697917</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4887697917</x:v>
+        <x:v>45913.0324341088</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.0324341088</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45913.0197531597</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1669,38 +1660,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45913.0197531597</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35312.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Rovana Emad Samir Micheal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد عبدالرؤف حسن ابوالحديد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
   </x:si>
   <x:si>
     <x:t>1230191</x:t>
@@ -392,7 +401,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -692,7 +701,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -847,7 +856,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4326937847</x:v>
+        <x:v>45927.4536977662</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1007,7 +1016,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.0073104514</x:v>
+        <x:v>45927.4215012384</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1039,7 +1048,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.041650081</x:v>
+        <x:v>45913.0073104514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1071,7 +1080,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45913.041650081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1103,7 +1112,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4311765394</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1135,7 +1144,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4343498032</x:v>
+        <x:v>45907.4311765394</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1167,7 +1176,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45909.4343498032</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1195,9 +1204,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6681149653</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1220,16 +1231,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45913.0271227662</x:v>
+        <x:v>45907.6681149653</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45913.0271227662</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4449827546</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45907.4449827546</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1353,9 +1362,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.673199456</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1378,16 +1389,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.4543715625</x:v>
+        <x:v>45907.673199456</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5731869213</x:v>
+        <x:v>45907.4543715625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.5731869213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4887697917</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.0324341088</x:v>
+        <x:v>45907.4887697917</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45913.0324341088</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.0197531597</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1660,6 +1669,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45913.0197531597</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35312.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسامه سعيد النجار توفيق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>osama said elnaggar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230328</x:t>
   </x:si>
   <x:si>
@@ -114,15 +105,6 @@
     <x:t>Zeina Sherif Ismail Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى طارق عوض مرعى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Tarek Awad Ali Marei</x:t>
-  </x:si>
-  <x:si>
     <x:t>2230012</x:t>
   </x:si>
   <x:si>
@@ -268,6 +250,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -401,7 +392,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -701,7 +692,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -792,7 +783,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4144651968</x:v>
+        <x:v>45907.4193179745</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -824,7 +815,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4193179745</x:v>
+        <x:v>45927.4536977662</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -856,7 +847,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4536977662</x:v>
+        <x:v>45913.0496256597</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -888,7 +879,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.0496256597</x:v>
+        <x:v>45913.0463795949</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -920,7 +911,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.0463795949</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -952,7 +943,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45909.4377708333</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -984,7 +975,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4377708333</x:v>
+        <x:v>45927.4215012384</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1016,7 +1007,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4215012384</x:v>
+        <x:v>45913.0073104514</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1048,7 +1039,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.0073104514</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1080,7 +1071,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.041650081</x:v>
+        <x:v>45907.4311765394</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1112,7 +1103,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45909.4343498032</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1144,7 +1135,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4311765394</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1172,11 +1163,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45909.4343498032</x:v>
+        <x:v>45907.6681149653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1199,16 +1188,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45913.0271227662</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1231,14 +1220,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6681149653</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.0271227662</x:v>
+        <x:v>45907.4449827546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1330,11 +1321,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.4449827546</x:v>
+        <x:v>45907.673199456</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1357,16 +1346,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45907.4543715625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1389,14 +1378,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.673199456</x:v>
+        <x:v>45907.5731869213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4543715625</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.5731869213</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45907.4887697917</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45913.0324341088</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4887697917</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.0324341088</x:v>
+        <x:v>45928.3998574074</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45913.0197531597</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1669,38 +1660,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45913.0197531597</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35312.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35312.xlsx
@@ -1666,11 +1666,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20512]20512-45-الجيزة الرئيسي Time : Tuesday(16:19)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20506]20506-45-الجيزة الرئيسي Time : Tuesday(16:19)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20512]20512-45-الجيزة الرئيسي Time : Tuesday(16:19)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20506]20506-45-الجيزة الرئيسي Time : Tuesday(16:19)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20512]20512-45-الجيزة الرئيسي Time : Tuesday(16:19)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20506]20506-45-الجيزة الرئيسي Time : Tuesday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/EECS304_Tutorial-35312.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35312.xlsx
@@ -153,7 +153,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1162052</x:t>
